--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1156726.282604047</v>
+        <v>1165887.68610494</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675438.956232711</v>
+        <v>1675438.956232709</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>106.5125558626484</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>304.078377232216</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>65.49346573995606</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>234.1055905923168</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>84.23825154616476</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>51.92096917925206</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>277.364294186357</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.16768394932474</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>30.18061673893683</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.01505925776635</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>60.48910589095324</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>74.75769145492377</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,10 +1584,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>211.4265222991254</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,16 +1615,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>36.06002841357776</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>117.4137306658402</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>148.7030313291075</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951292</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>251.2852794514161</v>
+        <v>182.6100760089476</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>181.1375494785993</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>282.7823572636615</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>215.5367273797014</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>239.6003837690086</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>41.20483001359378</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>79.80013931658179</v>
+        <v>83.77443380478226</v>
       </c>
       <c r="T23" t="n">
         <v>199.03604613535</v>
@@ -2377,7 +2377,7 @@
         <v>250.905953473387</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>323.7779639819352</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>81.59419338597559</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.4199664616721</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.525553994704</v>
@@ -2572,7 +2572,7 @@
         <v>409.8064945845168</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.8001393165827</v>
+        <v>83.77443380478226</v>
       </c>
       <c r="T26" t="n">
         <v>199.03604613535</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>81.59419338597559</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.525553994704</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.43890183961376</v>
       </c>
       <c r="S28" t="n">
         <v>181.0509578340822</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>151.8569202790083</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>81.59419338597559</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.43890183961376</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0509578340822</v>
+        <v>114.0296782018451</v>
       </c>
       <c r="T31" t="n">
         <v>217.4114992376929</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>405.8322000963174</v>
+        <v>409.8064945845168</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1864042025732</v>
+        <v>279.2121097143737</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>81.59419338597553</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>12.25441311023112</v>
       </c>
       <c r="G34" t="n">
         <v>165.525553994704</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8064945845168</v>
+        <v>405.8322000963165</v>
       </c>
       <c r="H35" t="n">
         <v>283.1864042025732</v>
@@ -3319,7 +3319,7 @@
         <v>83.77443380478226</v>
       </c>
       <c r="T35" t="n">
-        <v>195.0617516471506</v>
+        <v>199.03604613535</v>
       </c>
       <c r="U35" t="n">
         <v>250.905953473387</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>52.92014571451769</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>2.612047202657876</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>377.9560755840623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,7 +3556,7 @@
         <v>83.77443380478226</v>
       </c>
       <c r="T38" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471506</v>
       </c>
       <c r="U38" t="n">
         <v>250.905953473387</v>
@@ -3717,7 +3717,7 @@
         <v>217.4114992376929</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.184551609377</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8929146597345</v>
+        <v>85.41801843939467</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>402.9017512535119</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8064945845168</v>
@@ -3793,7 +3793,7 @@
         <v>83.77443380478226</v>
       </c>
       <c r="T41" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471506</v>
       </c>
       <c r="U41" t="n">
         <v>250.905953473387</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>101.6986993577483</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.525553994704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.43890183961376</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T43" t="n">
         <v>217.4114992376929</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>215.1311440200099</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4030,7 +4030,7 @@
         <v>83.77443380478226</v>
       </c>
       <c r="T44" t="n">
-        <v>199.03604613535</v>
+        <v>195.0617516471506</v>
       </c>
       <c r="U44" t="n">
         <v>250.905953473387</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2636441678538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>54.13912336666243</v>
+        <v>90.49966477027321</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0509578340822</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4114992376929</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.184551609377</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2100.012626270159</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="C2" t="n">
-        <v>1992.424186004858</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362833</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816096</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872927</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.012626270159</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X2" t="n">
-        <v>2100.012626270159</v>
+        <v>1251.460966789571</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.012626270159</v>
+        <v>1251.460966789571</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145198</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458222</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.3310369968231</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3948540689162</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>432.2782146565804</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>432.2782146565804</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>285.38826715867</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>117.4018024669486</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312198</v>
@@ -4503,10 +4503,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.9795018270628</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2228.894479532451</v>
+        <v>824.6074030911695</v>
       </c>
       <c r="C5" t="n">
-        <v>1992.424186004858</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816081</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2477.250185424231</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2268.504544030056</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2268.504544030056</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.894479532451</v>
+        <v>1937.441656686485</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.894479532451</v>
+        <v>1584.673001416371</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.894479532451</v>
+        <v>1211.207243155291</v>
       </c>
       <c r="Y5" t="n">
-        <v>2228.894479532451</v>
+        <v>1211.207243155291</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,37 +4634,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744476</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
         <v>664.1529317523638</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.000696661112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>861.3216348137587</v>
+        <v>350.0225872761065</v>
       </c>
       <c r="C8" t="n">
-        <v>861.3216348137587</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="D8" t="n">
-        <v>861.3216348137587</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>475.5333822155145</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>64.54747742590689</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362813</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816072</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
         <v>2360.886721764997</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.92672505065</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1251.46096678957</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y8" t="n">
-        <v>861.3216348137587</v>
+        <v>736.6224273402283</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>168.0008189145198</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2239.046898434118</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>400.7850803617173</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>231.8488974338104</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>81.73225802147465</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>582.433545191957</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.416669135309</v>
+        <v>1250.80968089488</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.416669135309</v>
+        <v>881.8471639544687</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450752</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189672</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.138951213861</v>
+        <v>1637.409520959002</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>380.4321398396066</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>380.4321398396066</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>380.4321398396066</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1300.279904748355</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1300.279904748355</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1010.862734711394</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>782.8731838133765</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.0806046698464</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1127.748203495404</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>758.7856865549927</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>400.5199879482422</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>400.5199879482422</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>400.5199879482422</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5278,22 +5278,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5311,19 +5311,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2630.721789066532</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W14" t="n">
-        <v>2277.953133796418</v>
+        <v>2765.652537847403</v>
       </c>
       <c r="X14" t="n">
-        <v>1904.487375535338</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y14" t="n">
-        <v>1514.348043559526</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218343</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1777.089465937879</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1555.322850507405</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U16" t="n">
-        <v>1266.219983633049</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1011.535495427162</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W16" t="n">
-        <v>1011.535495427162</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X16" t="n">
-        <v>783.5459445291447</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.7533653856145</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1844.338003964587</v>
+        <v>1774.969111598458</v>
       </c>
       <c r="C17" t="n">
-        <v>1475.375487024176</v>
+        <v>1406.006594658046</v>
       </c>
       <c r="D17" t="n">
-        <v>1117.109788417425</v>
+        <v>1047.740896051296</v>
       </c>
       <c r="E17" t="n">
-        <v>731.321535819181</v>
+        <v>661.9526434530512</v>
       </c>
       <c r="F17" t="n">
-        <v>320.3356310295734</v>
+        <v>250.9667386634437</v>
       </c>
       <c r="G17" t="n">
         <v>66.51211643218343</v>
@@ -5515,19 +5515,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939509</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X17" t="n">
-        <v>2621.077176004521</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y17" t="n">
-        <v>2230.937844028709</v>
+        <v>2161.568951662579</v>
       </c>
     </row>
     <row r="18">
@@ -5697,13 +5697,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
         <v>1241.044369546818</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1647.321240915451</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C20" t="n">
-        <v>1278.358723975039</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>763.1367659325601</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>352.1508611429526</v>
       </c>
       <c r="G20" t="n">
         <v>66.51211643218343</v>
@@ -5755,13 +5755,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.060412955384</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2033.921080979572</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.4482993600903</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218343</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.991001576708</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V22" t="n">
-        <v>927.3065133708208</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W22" t="n">
-        <v>637.8893433338602</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X22" t="n">
-        <v>637.8893433338602</v>
+        <v>860.7830983803434</v>
       </c>
       <c r="Y22" t="n">
-        <v>417.0967641903301</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>379.7841125753393</v>
       </c>
       <c r="H23" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I23" t="n">
         <v>95.14107549557821</v>
@@ -6010,19 +6010,19 @@
         <v>4190.976381557452</v>
       </c>
       <c r="Q23" t="n">
-        <v>4558.490828317809</v>
+        <v>4558.49082831781</v>
       </c>
       <c r="R23" t="n">
-        <v>4686.861982172361</v>
+        <v>4686.861982172362</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.241341965511</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717683</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673857</v>
       </c>
       <c r="V23" t="n">
         <v>3820.706025207256</v>
@@ -6056,31 +6056,31 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.1784171345862</v>
+        <v>314.1784171345863</v>
       </c>
       <c r="G24" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H24" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I24" t="n">
-        <v>95.44706852746404</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="J24" t="n">
-        <v>244.9357666236176</v>
+        <v>243.2259377396009</v>
       </c>
       <c r="K24" t="n">
-        <v>578.5905866043839</v>
+        <v>576.8807577203672</v>
       </c>
       <c r="L24" t="n">
-        <v>1073.553208785907</v>
+        <v>1071.843379901891</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.508111165358</v>
+        <v>1668.798282281341</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.671278431789</v>
+        <v>2295.961449547773</v>
       </c>
       <c r="O24" t="n">
         <v>2553.038713876677</v>
@@ -6126,31 +6126,31 @@
         <v>512.289329016485</v>
       </c>
       <c r="C25" t="n">
-        <v>343.3531460885781</v>
+        <v>512.289329016485</v>
       </c>
       <c r="D25" t="n">
-        <v>260.934768931027</v>
+        <v>512.289329016485</v>
       </c>
       <c r="E25" t="n">
-        <v>260.934768931027</v>
+        <v>407.8247164289374</v>
       </c>
       <c r="F25" t="n">
-        <v>260.934768931027</v>
+        <v>260.9347689310271</v>
       </c>
       <c r="G25" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="H25" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="I25" t="n">
-        <v>93.73723964344723</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="J25" t="n">
-        <v>173.8741688132293</v>
+        <v>173.8741688132294</v>
       </c>
       <c r="K25" t="n">
-        <v>435.4005972446798</v>
+        <v>435.4005972446799</v>
       </c>
       <c r="L25" t="n">
         <v>825.5908198420036</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F26" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G26" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983693</v>
       </c>
       <c r="H26" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I26" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557866</v>
       </c>
       <c r="J26" t="n">
-        <v>377.7275109623929</v>
+        <v>377.7275109623932</v>
       </c>
       <c r="K26" t="n">
-        <v>851.9898429966354</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L26" t="n">
         <v>1477.25596488715</v>
@@ -6241,37 +6241,37 @@
         <v>2948.436788907898</v>
       </c>
       <c r="O26" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P26" t="n">
         <v>4190.976381557452</v>
       </c>
       <c r="Q26" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R26" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.255780842481</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F27" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G27" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H27" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I27" t="n">
-        <v>95.44706852746407</v>
+        <v>95.44706852746404</v>
       </c>
       <c r="J27" t="n">
-        <v>244.9357666236177</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K27" t="n">
-        <v>578.590586604384</v>
+        <v>578.5905866043839</v>
       </c>
       <c r="L27" t="n">
-        <v>1073.553208785908</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M27" t="n">
         <v>1670.508111165358</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.7906323515732</v>
+        <v>512.289329016485</v>
       </c>
       <c r="C28" t="n">
-        <v>705.8544494236663</v>
+        <v>343.3531460885781</v>
       </c>
       <c r="D28" t="n">
-        <v>555.7378100113306</v>
+        <v>260.934768931027</v>
       </c>
       <c r="E28" t="n">
-        <v>407.8247164289374</v>
+        <v>260.934768931027</v>
       </c>
       <c r="F28" t="n">
-        <v>260.9347689310271</v>
+        <v>260.934768931027</v>
       </c>
       <c r="G28" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H28" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I28" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J28" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K28" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446798</v>
       </c>
       <c r="L28" t="n">
         <v>825.5908198420036</v>
@@ -6408,28 +6408,28 @@
         <v>2445.494219020782</v>
       </c>
       <c r="R28" t="n">
-        <v>2445.494219020782</v>
+        <v>2378.384217162587</v>
       </c>
       <c r="S28" t="n">
-        <v>2262.61446363282</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T28" t="n">
-        <v>2043.006888645252</v>
+        <v>1975.896886787056</v>
       </c>
       <c r="U28" t="n">
-        <v>1753.931583989315</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V28" t="n">
-        <v>1499.247095783428</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.829925746468</v>
+        <v>1142.719923888272</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.829925746468</v>
+        <v>914.7303729902549</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.439097181813</v>
+        <v>693.9377938467247</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.73723964344723</v>
       </c>
       <c r="I29" t="n">
-        <v>95.14107549557821</v>
+        <v>95.14107549557836</v>
       </c>
       <c r="J29" t="n">
-        <v>377.7275109623928</v>
+        <v>377.7275109623931</v>
       </c>
       <c r="K29" t="n">
-        <v>851.9898429966347</v>
+        <v>851.9898429966355</v>
       </c>
       <c r="L29" t="n">
         <v>1477.25596488715</v>
@@ -6478,7 +6478,7 @@
         <v>2948.436788907898</v>
       </c>
       <c r="O29" t="n">
-        <v>3637.434109665869</v>
+        <v>3637.43410966587</v>
       </c>
       <c r="P29" t="n">
         <v>4190.976381557452</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>512.289329016485</v>
+        <v>579.9875912712696</v>
       </c>
       <c r="C31" t="n">
-        <v>343.3531460885781</v>
+        <v>411.0514083433627</v>
       </c>
       <c r="D31" t="n">
         <v>260.934768931027</v>
@@ -6648,25 +6648,25 @@
         <v>2378.384217162587</v>
       </c>
       <c r="S31" t="n">
-        <v>2195.504461774625</v>
+        <v>2263.20272402941</v>
       </c>
       <c r="T31" t="n">
-        <v>1975.896886787056</v>
+        <v>2043.595149041841</v>
       </c>
       <c r="U31" t="n">
-        <v>1686.82158213112</v>
+        <v>1754.519844385904</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.137093925233</v>
+        <v>1499.835356180017</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.719923888272</v>
+        <v>1210.418186143057</v>
       </c>
       <c r="X31" t="n">
-        <v>914.7303729902549</v>
+        <v>982.4286352450395</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.9377938467247</v>
+        <v>761.6360561015093</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>789.7156278241448</v>
       </c>
       <c r="G32" t="n">
-        <v>379.7841125753393</v>
+        <v>375.7696736983702</v>
       </c>
       <c r="H32" t="n">
         <v>93.73723964344725</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>512.289329016485</v>
+        <v>740.2788799145023</v>
       </c>
       <c r="C34" t="n">
-        <v>343.3531460885781</v>
+        <v>571.3426969865955</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9347689310271</v>
+        <v>421.2260575742597</v>
       </c>
       <c r="E34" t="n">
-        <v>260.9347689310271</v>
+        <v>273.3129639918666</v>
       </c>
       <c r="F34" t="n">
         <v>260.9347689310271</v>
@@ -6900,10 +6900,10 @@
         <v>1142.719923888272</v>
       </c>
       <c r="X34" t="n">
-        <v>914.7303729902549</v>
+        <v>1142.719923888272</v>
       </c>
       <c r="Y34" t="n">
-        <v>693.9377938467247</v>
+        <v>921.9273447447421</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.732439636128</v>
+        <v>2313.718000759158</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.769922695716</v>
+        <v>1944.755483818746</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.504224088966</v>
+        <v>1586.489785211996</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.715971490722</v>
+        <v>1200.701532613751</v>
       </c>
       <c r="F35" t="n">
-        <v>793.730066701114</v>
+        <v>789.7156278241439</v>
       </c>
       <c r="G35" t="n">
         <v>379.7841125753393</v>
       </c>
       <c r="H35" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I35" t="n">
-        <v>95.14107549557775</v>
+        <v>95.14107549557821</v>
       </c>
       <c r="J35" t="n">
-        <v>377.7275109623934</v>
+        <v>377.7275109623928</v>
       </c>
       <c r="K35" t="n">
-        <v>851.9898429966358</v>
+        <v>851.9898429966343</v>
       </c>
       <c r="L35" t="n">
         <v>1477.25596488715</v>
       </c>
       <c r="M35" t="n">
-        <v>2204.654438818161</v>
+        <v>2204.65443881816</v>
       </c>
       <c r="N35" t="n">
-        <v>2948.436788907899</v>
+        <v>2948.436788907898</v>
       </c>
       <c r="O35" t="n">
-        <v>3637.43410966587</v>
+        <v>3637.434109665869</v>
       </c>
       <c r="P35" t="n">
-        <v>4190.976381557453</v>
+        <v>4190.976381557452</v>
       </c>
       <c r="Q35" t="n">
-        <v>4558.49082831781</v>
+        <v>4558.490828317809</v>
       </c>
       <c r="R35" t="n">
-        <v>4686.861982172362</v>
+        <v>4686.861982172361</v>
       </c>
       <c r="S35" t="n">
-        <v>4602.241341965511</v>
+        <v>4602.24134196551</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.209269594652</v>
+        <v>4401.194830717682</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.768912550827</v>
+        <v>4147.754473673856</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.706025207256</v>
+        <v>3816.691586330286</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.937369937142</v>
+        <v>3463.922931060171</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.471611676062</v>
+        <v>3090.457172799091</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.33227970025</v>
+        <v>2700.31784082328</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>460.7129751077013</v>
       </c>
       <c r="F36" t="n">
-        <v>314.1784171345863</v>
+        <v>314.1784171345862</v>
       </c>
       <c r="G36" t="n">
         <v>178.418045479447</v>
       </c>
       <c r="H36" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I36" t="n">
-        <v>95.44706852746407</v>
+        <v>95.44706852746404</v>
       </c>
       <c r="J36" t="n">
-        <v>244.9357666236177</v>
+        <v>244.9357666236176</v>
       </c>
       <c r="K36" t="n">
-        <v>578.590586604384</v>
+        <v>578.5905866043839</v>
       </c>
       <c r="L36" t="n">
-        <v>1073.553208785908</v>
+        <v>1073.553208785907</v>
       </c>
       <c r="M36" t="n">
         <v>1670.508111165358</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.52673729672</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O36" t="n">
         <v>2553.038713876677</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.3993308746806</v>
+        <v>707.5931030639933</v>
       </c>
       <c r="C37" t="n">
-        <v>410.4631479467737</v>
+        <v>538.6569201360865</v>
       </c>
       <c r="D37" t="n">
-        <v>410.4631479467737</v>
+        <v>388.5402807237507</v>
       </c>
       <c r="E37" t="n">
-        <v>407.8247164289374</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F37" t="n">
-        <v>260.9347689310271</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="G37" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="H37" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="I37" t="n">
-        <v>93.73723964344725</v>
+        <v>93.73723964344723</v>
       </c>
       <c r="J37" t="n">
-        <v>173.8741688132294</v>
+        <v>173.8741688132293</v>
       </c>
       <c r="K37" t="n">
-        <v>435.4005972446799</v>
+        <v>435.4005972446798</v>
       </c>
       <c r="L37" t="n">
         <v>825.5908198420036</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2313.718000759159</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C38" t="n">
-        <v>1944.755483818747</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D38" t="n">
-        <v>1586.489785211997</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E38" t="n">
         <v>1204.715971490722</v>
@@ -7204,22 +7204,22 @@
         <v>4602.241341965511</v>
       </c>
       <c r="T38" t="n">
-        <v>4401.194830717683</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U38" t="n">
-        <v>4147.754473673857</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.691586330287</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.922931060172</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X38" t="n">
-        <v>3090.457172799092</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y38" t="n">
-        <v>2700.317840823281</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="39">
@@ -7265,7 +7265,7 @@
         <v>1670.508111165358</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.52673729672</v>
+        <v>2297.671278431789</v>
       </c>
       <c r="O39" t="n">
         <v>2553.038713876677</v>
@@ -7365,16 +7365,16 @@
         <v>1975.896886787056</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.896886787056</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V40" t="n">
-        <v>1721.212398581169</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W40" t="n">
-        <v>1431.795228544209</v>
+        <v>1142.719923888272</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.805677646191</v>
+        <v>1142.719923888272</v>
       </c>
       <c r="Y40" t="n">
         <v>1056.439097181813</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2313.718000759159</v>
+        <v>2317.732439636128</v>
       </c>
       <c r="C41" t="n">
-        <v>1944.755483818747</v>
+        <v>1948.769922695716</v>
       </c>
       <c r="D41" t="n">
-        <v>1586.489785211997</v>
+        <v>1590.504224088966</v>
       </c>
       <c r="E41" t="n">
-        <v>1200.701532613752</v>
+        <v>1204.715971490722</v>
       </c>
       <c r="F41" t="n">
         <v>793.730066701114</v>
@@ -7414,7 +7414,7 @@
         <v>377.7275109623934</v>
       </c>
       <c r="K41" t="n">
-        <v>851.9898429966361</v>
+        <v>851.9898429966356</v>
       </c>
       <c r="L41" t="n">
         <v>1477.255964887151</v>
@@ -7441,22 +7441,22 @@
         <v>4602.241341965511</v>
       </c>
       <c r="T41" t="n">
-        <v>4401.194830717683</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U41" t="n">
-        <v>4147.754473673857</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V41" t="n">
-        <v>3816.691586330287</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.922931060172</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X41" t="n">
-        <v>3090.457172799092</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y41" t="n">
-        <v>2700.317840823281</v>
+        <v>2704.33227970025</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.8544494236663</v>
+        <v>512.289329016485</v>
       </c>
       <c r="C43" t="n">
-        <v>705.8544494236663</v>
+        <v>343.3531460885781</v>
       </c>
       <c r="D43" t="n">
-        <v>555.7378100113306</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="E43" t="n">
-        <v>407.8247164289374</v>
+        <v>240.6271871413576</v>
       </c>
       <c r="F43" t="n">
-        <v>260.9347689310271</v>
+        <v>93.73723964344725</v>
       </c>
       <c r="G43" t="n">
         <v>93.73723964344725</v>
@@ -7596,25 +7596,25 @@
         <v>2378.384217162587</v>
       </c>
       <c r="S43" t="n">
-        <v>2378.384217162587</v>
+        <v>2195.504461774625</v>
       </c>
       <c r="T43" t="n">
-        <v>2158.776642175018</v>
+        <v>1975.896886787056</v>
       </c>
       <c r="U43" t="n">
-        <v>1869.701337519082</v>
+        <v>1686.82158213112</v>
       </c>
       <c r="V43" t="n">
-        <v>1615.016849313195</v>
+        <v>1432.137093925233</v>
       </c>
       <c r="W43" t="n">
-        <v>1325.599679276234</v>
+        <v>1142.719923888272</v>
       </c>
       <c r="X43" t="n">
-        <v>1108.295493397436</v>
+        <v>914.7303729902549</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5029142539061</v>
+        <v>693.9377938467247</v>
       </c>
     </row>
     <row r="44">
@@ -7678,19 +7678,19 @@
         <v>4602.241341965511</v>
       </c>
       <c r="T44" t="n">
-        <v>4401.194830717683</v>
+        <v>4405.209269594652</v>
       </c>
       <c r="U44" t="n">
-        <v>4147.754473673857</v>
+        <v>4151.768912550827</v>
       </c>
       <c r="V44" t="n">
-        <v>3816.691586330287</v>
+        <v>3820.706025207256</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.922931060172</v>
+        <v>3467.937369937142</v>
       </c>
       <c r="X44" t="n">
-        <v>3090.457172799092</v>
+        <v>3094.471611676062</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.33227970025</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.2790862626423</v>
+        <v>799.0069058622491</v>
       </c>
       <c r="C46" t="n">
-        <v>593.3429033347354</v>
+        <v>630.0707229343423</v>
       </c>
       <c r="D46" t="n">
-        <v>443.2262639223997</v>
+        <v>479.9540835220065</v>
       </c>
       <c r="E46" t="n">
-        <v>295.3131703400065</v>
+        <v>332.0409899396134</v>
       </c>
       <c r="F46" t="n">
-        <v>148.4232228420962</v>
+        <v>185.151042441703</v>
       </c>
       <c r="G46" t="n">
         <v>93.73723964344725</v>
@@ -7833,25 +7833,25 @@
         <v>2445.494219020782</v>
       </c>
       <c r="S46" t="n">
-        <v>2445.494219020782</v>
+        <v>2262.61446363282</v>
       </c>
       <c r="T46" t="n">
-        <v>2225.886644033214</v>
+        <v>2262.61446363282</v>
       </c>
       <c r="U46" t="n">
-        <v>1936.811339377277</v>
+        <v>1973.539158976884</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.12685117139</v>
+        <v>1718.854670770997</v>
       </c>
       <c r="W46" t="n">
-        <v>1392.70968113443</v>
+        <v>1429.437500734036</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.720130236412</v>
+        <v>1201.447949836019</v>
       </c>
       <c r="Y46" t="n">
-        <v>943.927551092882</v>
+        <v>980.6553706924889</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>30.36925650589541</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.7187824057143</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>325.7488327651004</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>71.6762711916454</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>74.78531590648751</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>374.8616972398757</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>231.8272380515728</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>41.06599400233441</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.14213605696557</v>
       </c>
     </row>
     <row r="17">
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>159.6364462020373</v>
+        <v>228.3116496445058</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -23785,10 +23785,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>128.139368389792</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>154.1943732987677</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>46.61145443660428</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>184.5048253754434</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.974294488200471</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.974294488199689</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>67.02127963223677</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.01399618489711</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.974294488200314</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.974294488199561</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>67.02127963223677</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.43890183961376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.72773307308651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>67.02127963223677</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>67.02127963223704</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.974294488199462</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>67.02127963223683</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>133.1666349127001</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.974294488200371</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>3.974294488199462</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>126.9118344674196</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>143.8219154439113</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H37" t="n">
         <v>140.3072997278744</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.974294488199519</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.974294488199462</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184551609377</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.69173869236025</v>
+        <v>133.1666349127001</v>
       </c>
     </row>
     <row r="41">
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3.974294488199519</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.974294488199462</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.91677366046406</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.525553994704</v>
       </c>
       <c r="H43" t="n">
         <v>140.3072997278744</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5785113690273</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3.974294488199462</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.974294488199803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>111.3864306280416</v>
+        <v>75.02588922443077</v>
       </c>
       <c r="H46" t="n">
         <v>140.3072997278744</v>
@@ -26073,10 +26073,10 @@
         <v>66.43890183961376</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0509578340822</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4114992376929</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>977969.5834568467</v>
+        <v>977969.5834568468</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808052.5661967993</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808052.5661967993</v>
+        <v>808052.5661967994</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954691.8730314317</v>
+        <v>954691.8730314318</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954691.8730314319</v>
+        <v>954691.8730314318</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954691.8730314317</v>
+        <v>954691.8730314318</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719631</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
         <v>392146.663816559</v>
@@ -26331,16 +26331,16 @@
         <v>392146.663816559</v>
       </c>
       <c r="H2" t="n">
-        <v>392146.6638165588</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="I2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079746</v>
       </c>
       <c r="J2" t="n">
         <v>463906.3246079747</v>
       </c>
       <c r="K2" t="n">
-        <v>463906.3246079747</v>
+        <v>463906.3246079746</v>
       </c>
       <c r="L2" t="n">
         <v>463906.3246079747</v>
@@ -26355,7 +26355,7 @@
         <v>463906.3246079747</v>
       </c>
       <c r="P2" t="n">
-        <v>463906.3246079746</v>
+        <v>463906.3246079748</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171909</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>299319.5565061379</v>
+        <v>299319.556506138</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.265793415</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7330.627242042245</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,10 +26478,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26490,10 +26490,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>101045.05348103</v>
+      </c>
+      <c r="J5" t="n">
         <v>101045.0534810299</v>
-      </c>
-      <c r="J5" t="n">
-        <v>101045.05348103</v>
       </c>
       <c r="K5" t="n">
         <v>101045.0534810299</v>
@@ -26502,7 +26502,7 @@
         <v>101045.05348103</v>
       </c>
       <c r="M5" t="n">
-        <v>101045.05348103</v>
+        <v>101045.0534810299</v>
       </c>
       <c r="N5" t="n">
         <v>101045.05348103</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-868704.4018905457</v>
+        <v>-868704.4018905456</v>
       </c>
       <c r="C6" t="n">
+        <v>246047.381685374</v>
+      </c>
+      <c r="D6" t="n">
         <v>246047.3816853739</v>
       </c>
-      <c r="D6" t="n">
-        <v>246047.3816853741</v>
-      </c>
       <c r="E6" t="n">
-        <v>124960.5268978719</v>
+        <v>128089.0972661264</v>
       </c>
       <c r="F6" t="n">
-        <v>307033.5067150621</v>
+        <v>310162.0770833172</v>
       </c>
       <c r="G6" t="n">
-        <v>307033.5067150624</v>
+        <v>310162.0770833176</v>
       </c>
       <c r="H6" t="n">
-        <v>307033.5067150622</v>
+        <v>310162.0770833173</v>
       </c>
       <c r="I6" t="n">
-        <v>55678.65835408104</v>
+        <v>55999.24199571516</v>
       </c>
       <c r="J6" t="n">
-        <v>187393.0370502362</v>
+        <v>187713.6206918708</v>
       </c>
       <c r="K6" t="n">
-        <v>354998.214860219</v>
+        <v>355318.7985018532</v>
       </c>
       <c r="L6" t="n">
-        <v>354998.214860219</v>
+        <v>355318.7985018534</v>
       </c>
       <c r="M6" t="n">
-        <v>307445.9490668042</v>
+        <v>307766.5327084384</v>
       </c>
       <c r="N6" t="n">
-        <v>354998.2148602188</v>
+        <v>355318.7985018532</v>
       </c>
       <c r="O6" t="n">
-        <v>354998.2148602189</v>
+        <v>355318.7985018534</v>
       </c>
       <c r="P6" t="n">
-        <v>354998.2148602189</v>
+        <v>355318.7985018534</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26810,10 +26810,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>1171.715495543091</v>
+      </c>
+      <c r="J4" t="n">
         <v>1171.71549554309</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1171.715495543091</v>
       </c>
       <c r="K4" t="n">
         <v>1171.71549554309</v>
@@ -26822,7 +26822,7 @@
         <v>1171.715495543091</v>
       </c>
       <c r="M4" t="n">
-        <v>1171.715495543091</v>
+        <v>1171.71549554309</v>
       </c>
       <c r="N4" t="n">
         <v>1171.715495543091</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>340.3140401407975</v>
+        <v>340.3140401407977</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000395</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>258.7603359083591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>77.8519928400458</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.75804341517278</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,13 +27590,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>49.5515495799971</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>131.1673011786908</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.21396385262962</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>200.2166741445759</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>87.90859758465058</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>398.3800188236293</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>116.2533459076323</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,16 +28067,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32785,7 +32785,7 @@
         <v>28.40144645885672</v>
       </c>
       <c r="I24" t="n">
-        <v>101.2494798828453</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.8363116122764</v>
@@ -32803,7 +32803,7 @@
         <v>764.8398608373045</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5431489342299</v>
+        <v>402.270248817075</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33748,10 +33748,10 @@
         <v>745.1187838002509</v>
       </c>
       <c r="N36" t="n">
-        <v>465.7039607008711</v>
+        <v>764.8398608373045</v>
       </c>
       <c r="O36" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342299</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33985,10 +33985,10 @@
         <v>745.1187838002509</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7039607008711</v>
+        <v>764.8398608373045</v>
       </c>
       <c r="O39" t="n">
-        <v>699.6790490706632</v>
+        <v>400.5431489342299</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225052</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067504</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065825</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437455</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34795,13 +34795,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>617.098742766094</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>117.9333660065825</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.727099882845266</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>150.9986849456097</v>
@@ -36451,7 +36451,7 @@
         <v>633.4981487539712</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9469044897855</v>
+        <v>259.6740043726305</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.418016012253673</v>
       </c>
       <c r="J29" t="n">
-        <v>285.4408439058733</v>
+        <v>285.4408439058734</v>
       </c>
       <c r="K29" t="n">
         <v>479.0528606406489</v>
@@ -37396,10 +37396,10 @@
         <v>602.9847498782326</v>
       </c>
       <c r="N36" t="n">
-        <v>334.3622486175378</v>
+        <v>633.4981487539712</v>
       </c>
       <c r="O36" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897855</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>602.9847498782326</v>
       </c>
       <c r="N39" t="n">
-        <v>334.3622486175378</v>
+        <v>633.4981487539712</v>
       </c>
       <c r="O39" t="n">
-        <v>557.0828046262187</v>
+        <v>257.9469044897855</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
